--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/hqiu1_ualberta_ca/Documents/Coding/NLP Tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/hqiu1_ualberta_ca/Documents/Coding/NLP Tools/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_2D0534BD8710527ACBDA3E11595ED87656C1EA49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105AD995-3BEA-4D55-8520-323E0E41ADB8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_14A177A88710560EDB1A3411595ED876568C40BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD49ECB4-84E7-4564-9354-2AC7785AC42B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -31,324 +31,235 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Extracted</t>
+    <t>Serum thioredoxin and in-hospital major adverse events after traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: In-hospital major adverse events (IMAEs), mainly including acute lung injury, acute traumatic coagulopathy, progressive hemorrhagic injury and posttraumatic cerebral infarction, are associated with poor prognosis after traumatic brain injury (TBI). Thioredoxin, a potent anti-oxidant, has been identified as an oxidative stress marker. This study was designed to explore the association of serum thioredoxin concentrations with IMAEs of patients with severe TBI., METHODS: This prospective, observational study recruited a total of 108 healthy controls and 108 patients with severe TBI. We investigated the possible relation of serum thioredoxin concentrations to IMAEs and trauma severity (reflected by Glasgow coma scale scores) following TBI using a multivariate analysis., RESULTS: Serum thioredoxin concentrations were higher in the patients than in the controls. Serum concentrations of thioredoxin significantly correlated with admission Glasgow coma scale scores. Thioredoxin in serum independently predicted any IMAEs. As compared to admission Glasgow coma scale scores, thioredoxin concentrations had similar areas under receiver operating characteristic curve for any IMAEs., CONCLUSION: Increased serum thioredoxin concentrations are highly associated with trauma severity and IMAEs, indicating thioredoxin might be a potential prognostic biomarker after TBI. Copyright © 2017 Elsevier B.V. All rights reserved.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Prognostic model for patients with traumatic brain injuries and abnormal computed tomography scans.</t>
+  </si>
+  <si>
+    <t>Traumatic brain injury (TBI) is an important cause of death and disability worldwide. The prognosis evaluation is a challenge when many variables are involved. The authors aimed to develop prognostic model for assessment of survival chances after TBI based on admission characteristics, including extracranial injuries, which would allow application of the model before in-hospital therapeutic interventions. A cohort study evaluated 1275 patients with TBI and abnormal CT scans upon admission to the emergency unit of Hospital das Clinicas of University of Sao Paulo and analyzed the final outcome on mortality. A logistic regression analysis was undertaken to determine the adjusted weigh of each independent variable in the outcome. Four variables were found to be significant in the model: age (years), Glasgow Coma Scale (3-15), Marshall Scale (MS, stratified into 2,3 or 4,5,6; according to the best group positive predictive value) and anysochoria (yes/no). The following formula is in a logistic model (USP index to head injury) estimates the probability of death of patients according to characteristics that influence on mortality. We consider that our mathematical probability model (USP Index) may be applied to clinical prognosis in patients with abnormal CT scans after severe traumatic brain injury. Copyright © 2017 Elsevier Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Serum macrophage migration inhibitory factor concentrations correlate with prognosis of traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Macrophage migration inhibitory factor (MIF) is a well-known pro-inflammatory cytokine. Serum MIF concentrations are associated with the severity and prognosis of ischemic stroke., METHODS: In this prospective, observational study, white blood cell (WBC) count and serum concentrations of C-reactive protein (CRP), interleukin-6 (IL-6), tumor necrosis factor-alpha (TNF-alpha) and MIF among 108 severe traumatic brain injury (TBI) patients and 108 controls were measured. We determined whether serum MIF concentrations are associated with inflammation, severity, in-hospital major adverse events (IMAEs) (i.e., in-hospital mortality, acute lung injury, acute traumatic coagulopathy, progressive hemorrhagic injury and posttraumatic cerebral infarction) and long-term clinical outcome (i.e., 6-month functional outcome) after TBI., RESULTS: As compared to the controls, serum CRP, IL-6, TNF-alpha and MIF concentrations were significantly increased. MIF concentrations correlated with WBC count, CRP, IL-6 and TNF-alpha concentrations and Glasgow coma scale (GCS) scores. MIF in serum was independently associated with IMAEs and long-term clinical outcome. Area under receiver operating characteristic curve of MIF concentrations was similar to GCS scores'. Moreover, MIF concentrations markedly improved the predictive value of GCS scores for 6-month unfavorable outcome., CONCLUSION: Increased serum MIF concentrations have close relation to inflammation, trauma severity and clinical outcomes, substantializing MIF as a good prognostic biomarker after TBI. Copyright © 2017 Elsevier B.V. All rights reserved.</t>
+  </si>
+  <si>
+    <t>A prospective outcome study observing patients with severe traumatic brain injury over 10-15 years.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Severe traumatic brain injury (sTBI) can be divided into primary and secondary injuries. Intensive care protocols focus on preventing secondary injuries. This prospective cohort study was initiated to investigate outcome, including mortality, in patients treated according to the Lund Concept after a sTBI covering 10-15 years post-trauma., METHODS: Patients were included during 2000-2004 when admitted to the neurointensive care unit, Sahlgrenska University Hospital. Inclusion criteria were: Glasgow coma scale score of &lt;=8, need for artificial ventilation and intracranial monitoring. Glasgow Outcome Scale (GOS) was used to evaluate outcome both at 1-year and 10-15 years post-trauma., RESULTS: Ninety-five patients, (27 female and 68 male), were initially included. Both improvement and deterioration were noted between 1- and 10-15 years post-injury. Mortality rate (34/95) was higher in the studied population vs. a matched Swedish population, (Standard mortality rate (SMR) 9.5; P &lt; 0.0001). When dividing the cohort into Good (GOS 4-5) and Poor (GOS 2-3) outcome at 1-year, only patients with Poor outcome had a higher mortality rate than the matched population (SMR 7.3; P &lt; 0.0001). Further, good outcome (high GOS) at 1-year was associated with high GOS 10-15 years post-trauma (P &lt; 0.0001). Finally, a majority of patients demonstrated symptoms of mental fatigue., CONCLUSION: This indicates that patients with severe traumatic brain injury with Good outcome at 1-year have similar survival probability as a matched Swedish population and that high Glasgow outcome scale at 1-year is related to good long-term outcome. Our results further emphasise the advantage of the Lund concept. Copyright © 2017 The Acta Anaesthesiologica Scandinavica Foundation. Published by John Wiley &amp; Sons Ltd.</t>
+  </si>
+  <si>
+    <t>Is It Reliable to Predict the Outcome of Elderly Patients with Severe Traumatic Brain Injury Using the IMPACT Prognostic Calculator?.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Many investigators endeavor to predict the outcome based on admission characteristics using some established models to determine which management should be applied. However, the efficacy and applicability of the models using in the geriatric patients with severe traumatic brain injury (TBI) have not yet been evaluated., METHODS: A total of 137 geriatric severe TBI patients were enrolled in this retrospective study. Receiver operating characteristic (ROC) curves were constructed to evaluate the efficacy and usability of the International Mission for Prognosis and Analysis of Clinical Trials in TBI (IMPACT) prognostic model in evaluating the prognosis for these patients., RESULTS: The observed mortality and unfavorable outcomes at 6 months in patients with severe TBI were 54.7% and 70.8%, respectively, slightly lower than the predicted outcomes using the IMPACT model. ROC curve analysis showed areas under the curve (AUCs) for mortality of 0.76 and for unfavorable outcome of 0.80 in the Core model, of 0.76 and 0.79, respectively, in the Extended model, and of 0.73 and 0.77, respectively, in the Lab model. When expected risk of fatal outcome was &gt;90% in any model, the true positive rate was 100%. Moreover, when the predicted risk for unfavorable outcomes was &gt;70% in any model, the actual rate of unfavorable outcomes was &gt;80%., CONCLUSIONS: The IMPACT prognosis calculator showed just fair discrimination when predicting the outcome of the elderly patients with severe TBI. Management decisions should be made on a case-by-case basis rather than by relying on the predicted risks identified by this model; conservative treatment might be preferable when expected risk of fatal outcome is &gt;90%. Copyright © 2017 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[Predictors of the recovery of cognitive functions in patients with traumatic brain injury].</t>
   </si>
   <si>
     <t>INTRODUCTION: After a traumatic brain injury (TBI), cognitive functionality may be severely altered. Some studies have aimed at identifying the best predictive variables for cognitive recovery, however, results still remain unclear., AIMS: To assess the recovery of cognitive functionality in TBI patients after a rehabilitation programme, and to identify the variables that best predict the cognitive recovery., PATIENTS AND METHODS: We conducted a retrospective pre-post study with 58 adult TBI patients that underwent an intensive rehabilitation programme. All of them were assessed using the cognitive functions sub-scale from the FIM+FAM scale, at admission and discharge. Both scores were compared using non-parametric test Wilcoxon. Cognitive functionality gain percentage was calculated and correlated with all the collected data. A multiple linear regression analysis was carried out to identify the best predictors of cognitive functionality gain percentage by introducing all clinical, demographic and cognitive information., RESULTS: The group's cognitive functionality increased significantly from 33,6% to 85% (p &lt; 0,01). Patients with higher cognitive functionality gain percentage were those with younger age, shorter time post-TBI, and higher scores on cognitive functions sub-scale, conditional attention and Luria's memory word tests. The best predictors for cognitive functionality gain percentage were time post-TBI and cognitive functions at admission (adjusted R(2) = 55,8%)., CONCLUSIONS: Patients who started rehabilitation sooner and had a higher cognitive functionality at admission, showed the greatest increase in cognitive functionality gain percentage. Other variables like age, or scores on cognitive tests must also be considered in future studies.</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Time post-TBI | Cognitive functionality gain percentage | 58 |\n| Cognitive functions at admission | Cognitive functionality gain percentage | 58 |"
-    }
-  ],
-  "created": 1654226828,
-  "id": "cmpl-5EsFokRXwZ0EOLayp7qzKqMaUib3i",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Early CT findings to predict early death in patients with traumatic brain injury: Marshall and Rotterdam CT scoring systems compared in the major academic tertiary care hospital in northeastern Japan.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n\n| Computed tomography (CT) | Death at hospital discharge | 245 |\n\n| Marshall and Rotterdam scoring systems | Death at hospital discharge | 245 |\n\n| Basal cistern absence | Death at hospital discharge | 245 |\n\n| Positive midline shift | Death at hospital discharge | 245 |\n\n| Hemorrhagic mass volume | Death at hospital discharge | 245 |\n\n| Intraventricular or subarachnoid hemorrhage | Death at hospital discharge | 245 |"
-    }
-  ],
-  "created": 1654226830,
-  "id": "cmpl-5EsFqafrwUHQp6dieZzWEKCdeWBeM",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
+    <t>RATIONALE AND OBJECTIVES: Computed tomography (CT) plays a crucial role in early assessment of patients with traumatic brain injury (TBI). Marshall and Rotterdam are the mostly used scoring systems, in which CT findings are grouped differently. We sought to determine the scoring system and initial CT findings predicting the death at hospital discharge (early death) in patients with TBI., MATERIALS AND METHODS: We included 245 consecutive adult patients with mild-to-severe TBI. Their initial CT and status at hospital discharge (dead or alive) were reviewed, and both CT scores were calculated. We examined whether each score was related to early death; compared the two scoring systems' performance in predicting early death, and identified the CT findings that are independent predictors of early death., RESULTS: More deaths occurred among patients with higher Marshall and Rotterdam scores (both P &lt; .05, Mann-Whitney U test). The areas under the receiver operating characteristic curve (AUCs) indicated that both scoring systems had similarly good discriminative power in predicting early death (Marshall, AUC = 0. 85 vs. Rotterdam, AUC = 0.85). Basal cistern absence (odds ratio [OR] = 771.5, P &lt; .0001), positive midline shift (OR = 56.2, P = .0011), hemorrhagic mass volume &gt;=25 mL (OR = 12.9, P = .0065), and intraventricular or subarachnoid hemorrhage (OR = 3.8, P = .0395) were independent predictors of early death., CONCLUSIONS: Both Marshall and Rotterdam scoring systems can be used to predict early death in patients with TBI. The performance of the Marshall score is at least equal to that of the Rotterdam score. Thus, although older, the Marshall score remains useful in predicting patients' prognosis. Copyright © 2014 AUR. Published by Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Predicting six-month mortality of patients with traumatic brain injury: usefulness of common intensive care severity scores.</t>
   </si>
   <si>
     <t>INTRODUCTION: The aim of this study was to evaluate the usefulness of the APACHE II (Acute Physiology and Chronic Health Evaluation II), SAPS II (Simplified Acute Physiology Score II) and SOFA (Sequential Organ Failure Assessment) scores compared to simpler models based on age and Glasgow Coma Scale (GCS) in predicting long-term outcome of patients with moderate-to-severe traumatic brain injury (TBI) treated in the intensive care unit (ICU)., METHODS: A national ICU database was screened for eligible TBI patients (age over 15 years, GCS 3-13) admitted in 2003-2012. Logistic regression was used for customization of APACHE II, SAPS II and SOFA score-based models for six-month mortality prediction. These models were compared to an adjusted SOFA-based model (including age) and a reference model (age and GCS). Internal validation was performed by a randomized split-sample technique. Prognostic performance was determined by assessing discrimination, calibration and precision., RESULTS: In total, 1,625 patients were included. The overall six-month mortality was 33%. The APACHE II and SAPS II-based models showed good discrimination (area under the curve (AUC) 0.79, 95% confidence interval (CI) 0.75 to 0.82; and 0.80, 95% CI 0.77 to 0.83, respectively), calibration (P &gt; 0.05) and precision (Brier score 0.166 to 0.167). The SOFA-based model showed poor discrimination (AUC 0.68, 95% CI 0.64 to 0.72) and precision (Brier score 0.201) but good calibration (P &gt; 0.05). The AUC of the SOFA-based model was significantly improved after the insertion of age and GCS (AUC +0.11, P &lt; 0.001). The performance of the reference model was comparable to the APACHE II and SAPS II in terms of discrimination (AUC 0.77; compared to APACHE II, DELTAAUC -0.02, P = 0.425; compared to SAPS II, DELTAAUC -0.03, P = 0.218), calibration (P &gt; 0.05) and precision (Brier score 0.181)., CONCLUSIONS: A simple prognostic model, based only on age and GCS, displayed a fairly good prognostic performance in predicting six-month mortality of ICU-treated patients with TBI. The use of the more complex scoring systems APACHE II, SAPS II and SOFA added little to the prognostic performance.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| APACHE II | Six-month mortality of ICU-treated patients with TBI | 1,625 |\n| SAPS II | Six-month mortality of ICU-treated patients with TBI | 1,625 |\n| SOFA | Six-month mortality of ICU-treated patients with TBI | 1,625 |\n| Age | Six-month mortality of ICU-treated patients with TBI | 1,625 |\n| Glasgow Coma Scale | Six-month mortality of ICU-treated patients with TBI | 1,625 |"
-    }
-  ],
-  "created": 1654226834,
-  "id": "cmpl-5EsFu9ZNyPdpWr9tEu58rhIR5T86V",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
+    <t>18FDG-PET/CT in traumatic brain injury patients: the relative hypermetabolism of vermis cerebelli as a medium and long term predictor of outcome.</t>
   </si>
   <si>
     <t>PURPOSE: Both, the constant presence of apparent hypermetabolism of the vermis cerebelli compared to the cerebellar hemispheres in traumatic brain injury, and the presence of a good relationship between the intensity of this sign and the severity of the clinical conditions have been addressed in previous studies. Aim of the present paper is to evaluate the possible correlation between the intensity of the finding and the medium and long term outcome in a group of patients., MATERIALS AND METHODS: A group of 105 patients consecutively admitted to the Brain Injury Rehabilitation Center of our Hospital between 2005 and 2012 was studied with a 18FDG-PET/CT study of the brain after head trauma; the metabolic activity of the cerebellar vermis was semiquantitatively assessed (vermis/cerebellum ratio, V/C). After that, all patients received systematic monitoring of their performance status via the timely administration of commonly used tests (DRS, LCF and GOS) during one whole year after the head trauma. The V/C parameter was compared with the evolution of performance abilities, as shown by the rating scales., RESULTS: Statistical analysis showed a significant direct association between the V/C ratio and the DRS score at each time point (3 months: P&lt;0.001; 6 months: P&lt;0.001; 12 months: P&lt;0.001) and significant inverse association with the LCF score (3 months: P&lt;0.001; 6 months: P&lt;0.001; 12 months: P&lt;0.001) and the GOS score (3 months: P&lt;0.001; 6 months: P&lt;0.001; 12 months: P&lt;0.001) at each time point. Moreover, patients with a V/C ratio &gt;= 1 have a significantly greater probability to achieve a good functional outcome as defined by a DRS score &gt;= 3 points, a LCF score &gt;= 7 points and and a GOS score =5 points., CONCLUSIONS: In our group of patients, the V/C parameter has demonstrated to be a predictor of outcome. If validated by more extensive experiences, this approach could offer the possibility of performing a reliable prognostic evaluation in a notoriously "difficult" class of patients with an acceptable technique and economical effort.</t>
   </si>
   <si>
+    <t>Association between serum tissue inhibitor of matrix metalloproteinase-1 levels and mortality in patients with severe brain trauma injury.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Matrix metalloproteinases (MMPs) and tissue inhibitors of matrix metalloproteinases (TIMPs) play a role in neuroinflammation after brain trauma injury (TBI). Previous studies with small sample size have reported higher circulating MMP-2 and MMP-9 levels in patients with TBI, but no association between those levels and mortality. Thus, the aim of this study was to determine whether serum TIMP-1 and MMP-9 levels are associated with mortality in patients with severe TBI., METHODS: This was a multicenter, observational and prospective study carried out in six Spanish Intensive Care Units. Patients with severe TBI defined as Glasgow Coma Scale (GCS) lower than 9 were included, while those with Injury Severity Score (ISS) in non-cranial aspects higher than 9 were excluded. Serum levels of TIMP-1, MMP-9 and tumor necrosis factor (TNF)-alpha, and plasma levels of tissue factor (TF) and plasminogen activator inhibitor (PAI)-1 plasma were measured in 100 patients with severe TBI at admission. Endpoint was 30-day mortality., RESULTS: Non-surviving TBI patients (n = 27) showed higher serum TIMP-1 levels than survivor ones (n = 73). We did not find differences in MMP-9 serum levels. Logistic regression analysis showed that serum TIMP-1 levels were associated 30-day mortality (OR = 1.01; 95% CI = 1.001-1.013; P = 0.03). Survival analysis showed that patients with serum TIMP-1 higher than 220 ng/mL presented increased 30-day mortality than patients with lower levels (Chi-square = 5.50; P = 0.02). The area under the curve (AUC) for TIMP-1 as predictor of 30-day mortality was 0.73 (95% CI = 0.624-0.844; P&lt;0.001). An association between TIMP-1 levels and APACHE-II score, TNF- alpha and TF was found., CONCLUSIONS: The most relevant and new findings of our study, the largest series reporting data on TIMP-1 and MMP-9 levels in patients with severe TBI, were that serum TIMP-1 levels were associated with TBI mortality and could be used as a prognostic biomarker of mortality in TBI patients.</t>
+  </si>
+  <si>
     <t>Diffusion tensor imaging for outcome prediction in mild traumatic brain injury: a TRACK-TBI study.</t>
   </si>
   <si>
     <t>We evaluated 3T diffusion tensor imaging (DTI) for white matter injury in 76 adult mild traumatic brain injury (mTBI) patients at the semiacute stage (11.2+/-3.3 days), employing both whole-brain voxel-wise and region-of-interest (ROI) approaches. The subgroup of 32 patients with any traumatic intracranial lesion on either day-of-injury computed tomography (CT) or semiacute magnetic resonance imaging (MRI) demonstrated reduced fractional anisotropy (FA) in numerous white matter tracts, compared to 50 control subjects. In contrast, 44 CT/MRI-negative mTBI patients demonstrated no significant difference in any DTI parameter, compared to controls. To determine the clinical relevance of DTI, we evaluated correlations between 3- and 6-month outcome and imaging, demographic/socioeconomic, and clinical predictors. Statistically significant univariable predictors of 3-month Glasgow Outcome Scale-Extended (GOS-E) included MRI evidence for contusion (odds ratio [OR] 4.9 per unit decrease in GOS-E; p=0.01), &gt;=1 ROI with severely reduced FA (OR, 3.9; p=0.005), neuropsychiatric history (OR, 3.3; p=0.02), age (OR, 1.07/year; p=0.002), and years of education (OR, 0.79/year; p=0.01). Significant predictors of 6-month GOS-E included &gt;=1 ROI with severely reduced FA (OR, 2.7; p=0.048), neuropsychiatric history (OR, 3.7; p=0.01), and years of education (OR, 0.82/year; p=0.03). For the subset of 37 patients lacking neuropsychiatric and substance abuse history, MRI surpassed all other predictors for both 3- and 6-month outcome prediction. This is the first study to compare DTI in individual mTBI patients to conventional imaging, clinical, and demographic/socioeconomic characteristics for outcome prediction. DTI demonstrated utility in an inclusive group of patients with heterogeneous backgrounds, as well as in a subset of patients without neuropsychiatric or substance abuse history.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| MRI evidence for contusion | 3-month Glasgow Outcome Scale-Extended (GOS-E) | 76 |\n| &gt;=1 ROI with severely reduced FA | 3-month GOS-E | 76 |\n| Neuropsychiatric history | 3-month GOS-E | 76 |\n| Age | 3-month GOS-E | 76 |\n| Years of education | 3-month GOS-E | 76 |\n| &gt;=1 ROI with severely reduced FA | 6-month GOS-E | 76 |\n| Neuropsychiatric history | 6-month GOS-E | 76 |\n| Years of education | 6-month GOS-E | 76 |"
-    }
-  ],
-  "created": 1654226842,
-  "id": "cmpl-5EsG2LK3IaUMbcbQrM3m2tk5qs32x",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Relationship of preinjury depressive symptoms to outcomes 3 mos after complicated and uncomplicated mild traumatic brain injury.</t>
   </si>
   <si>
     <t>OBJECTIVE: This study examines the effect of preinjury depressive symptoms on outcomes 3 mos after complicated and uncomplicated cases of mild traumatic brain injury., DESIGN: Preinjury depressive symptoms, experienced in the 30 days before injury, as measured by retrospective self-report, were assessed within the first 2 wks after injury. The outcome measures assessed at 3 mos after injury included affective/behavioral, cognitive, and physical problems and health-related quality-of-life., RESULTS: There were 177 patients who completed both the baseline and 3-mo follow-up interviews. The sample was categorized by severity of depressive symptoms in the month before injury as normal, mild, or moderate-severe. Compared with those reporting no preinjury depressive symptoms, persons reporting moderate-severe depressive symptoms had significantly worse outcomes on the Affective and Behavioral and the Cognitive subscales of the Head Injury-Family Interview Problem Checklist and on the 36-item Short-Form Health Survey Mental Component Summary score. The group reporting mild preinjury depressive symptoms scored worse on a measure of cognitive symptoms compared with those with no preinjury depressive symptoms. There was no interaction between preinjury depressive symptoms and severity of the mild traumatic brain injury (complicated or uncomplicated) for any of the outcomes., CONCLUSION: Moderate to severe depressive symptoms in the month before injury seems to be a possible risk factor for poor affective/behavioral, cognitive, and mental health-related quality-of-life outcomes at 3 mos after mild traumatic brain injury. Clinicians and researchers should consider the impact of preinjury depression on the recovery process to provide at-risk patients adequate treatment soon after injury.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Preinjury depressive symptoms | Affective and behavioral problems | 177 |\n| Preinjury depressive symptoms | Cognitive problems | 177 |\n| Preinjury depressive symptoms | Mental health-related quality-of-life | 177 |"
-    }
-  ],
-  "created": 1654226847,
-  "id": "cmpl-5EsG7YipBGS0tpeFsX5cz5uoxWNAV",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
-    <t>Long-term outcome in elderly patients after operation for traumatic intracranial hemorrhage.</t>
-  </si>
-  <si>
-    <t>OBJECTIVE: This study examined outcomes in elderly TBI patients who underwent a cranial operation., METHODS: We identified TBI patients &gt; or = 65 who underwent a cranial operation from January 1, 2004 to December 31, 2008. Data collected included: age, admission GCS, mechanism of injury, ISS, Head AIS, type of operation, hemorrhage acuity, time to operation, pre-hospital warfarin or clopidogrel, and in-hospital death. Survivors were contacted by phone to determine an Extended Glasgow Outcome Score (GOSE). A favorable outcome was defined as having a GOSE of &gt; or = 5 at follow-up, an unfavorable outcome was defined as: in-hospital death, death within one year of injury, and a GOSE &lt; 5 at follow-up. Chi-square and student's t-test were used., RESULTS: One hundred sixty-four elderly TBI patients underwent cranial surgery. Mean age was 79.2 +/- 7.6 years. Most patients: had a ground level fall (86.0%), suffered a subdural hematoma (95.1%), and underwent craniotomy (89.0%). Twenty-eight percent died in the hospital and another 20.1% died within one year. Fifty-six patients were eligible for a GOSE interview of these: 17 were lost to follow-up, seven refused the GOSE interview, 22 had a GOSE &gt; or = 5, and ten had a GOSE &lt; 5. Mean follow-up was 42.6 +/- 14.9 months. Of all the factors analyzed, only older age was associated with an unfavorable outcome., CONCLUSIONS: While age was associated with outcome, we were unable to demonstrate any other early factors that were associated with long-term functional outcome in elderly patients that underwent a cranial operation for TBI.</t>
-  </si>
-  <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Age | Unfavorable outcome | 164 |\n| Admission GCS |  | 164 |\n| Mechanism of injury |  | 164 |\n| ISS |  | 164 |\n| Head AIS |  | 164 |\n| Type of operation |  | 164 |\n| Hemorrhage acuity |  | 164 |\n| Time to operation |  | 164 |\n| Pre-hospital warfarin or clopidogrel |  | 164 |\n| In-hospital death |  | 164 |"
-    }
-  ],
-  "created": 1654226850,
-  "id": "cmpl-5EsGAme2rGmM4I8aMgaiq1GsMWiuT",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>A systematic review of age and gender factors in prolonged post-concussion symptoms after mild head injury.</t>
   </si>
   <si>
     <t>BACKGROUND: Older age and female gender are known factors in the development of persisting post-concussion symptoms (PCS) after mild head injury (MHI), i.e. at 3+ months. Very few studies have examined longer-term symptoms. A recent review, however, established the importance of these variables in permanent PCS (18+ months). The current study repeats the review for prolonged symptoms (12-18 months)., METHODS: Systematic electronic database searches were conducted to identify all studies with data on (i) correlations between age/gender and prolonged outcome and (ii) mean ages/gender mixes of (a) prolonged samples selected for poor symptomatic outcome, (b) prolonged samples not selected for poor outcome and (c) epidemiological studies of MHI patients presenting to hospital., RESULTS: Correlation studies showed poorer outcome to be associated with both older age (2/5 studies) and female gender (5/6 studies). Those with poor prolonged outcome had a significantly higher mean age (35.9) than MHI patients in general (29.9). The proportion of men in these samples (48.6%) was significantly lower than MHI patients in general (66.7%)., CONCLUSIONS: Older age and female gender are vulnerability factors in the development of prolonged PCS. The main clinical implications are for how early intervention and reassurance are best provided.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Older age | Poorer outcome | 2/5 studies |\n| Female gender | Poorer outcome | 5/6 studies |"
-    }
-  ],
-  "created": 1654226857,
-  "id": "cmpl-5EsGHObt3Gp7ST00mgIg81eY6Sa0Z",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Trends and outcome predictors after traumatic brain injury surgery: a nationwide population-based study in Taiwan.</t>
   </si>
   <si>
     <t>OBJECT: The authors sought to analyze trends in hospital resource utilization and mortality rates in a population of patients who had received traumatic brain injury (TBI) surgery., METHODS: This nationwide population-based cohort study retrospectively analyzed 18,286 patients who had received surgical treatment for TBI between 1998 and 2010. The multiple linear regression model and Cox proportional hazards model were used for multivariate assessment of outcome predictors., RESULTS: The prevalence rate of surgical treatment for patients with TBI gradually but significantly (p &lt; 0.001) increased by 47.6% from 5.0 per 100,000 persons in 1998 to 7.4 per 100,000 persons in 2010. Age, sex, Deyo-Charlson comorbidity index score, hospital volume, and surgeon volume were significantly associated with TBI surgery outcomes (p &lt; 0.05). Over the 12-year period analyzed, the estimated mean hospital treatment cost increased 19.06%, whereas the in-hospital mortality rate decreased 10.9%. The estimated mean time of overall survival after TBI surgery (+/- SD) was 83.0 +/- 4.2 months, and the overall in-hospital and 1-, 3-, and 5-year survival rates were 74.5%, 67.3%, 61.1%, and 57.8%, respectively., CONCLUSIONS: These data reveal an increased prevalence of TBI, especially in older patients, and an increased hospital treatment cost but a decreased in-hospital mortality rate. Health care providers and patients should recognize that attributes of the patient and of the hospital may affect hospital resource utilization and the mortality rate. These results are relevant not only to other countries with similar population sizes but also to countries with larger populations.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Age | TBI surgery outcomes | 18,286 |\n| Sex | TBI surgery outcomes | 18,286 |\n| Deyo-Charlson comorbidity index score | TBI surgery outcomes | 18,286 |\n| Hospital volume | TBI surgery outcomes | 18,286 |\n| Surgeon volume | TBI surgery outcomes | 18,286 |"
-    }
-  ],
-  "created": 1654226858,
-  "id": "cmpl-5EsGILz2RvwHd2tyR4dCCEQSvKcp2",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Effect of demographic and injury etiologic factors on intensive care unit mortality after severe head injury in a low middle income country.</t>
   </si>
   <si>
     <t>BACKGROUND: Low- and middle-income countries bear the mortality burden of head injury compared with high-income countries. Not much has been studied about predictors of poor outcome after head injury in these countries. This study describes and quantifies the effect of demographics and injury causative factors on mortality in a cohort managed in a Nigerian tertiary hospital intensive care., MATERIALS AND METHODS: A retrospective study was undertaken of all patients admitted into intensive care with severe head injury at the University of Port Harcourt Teaching Hospital, Nigeria between 1 st January, 1997 and 31 st December, 2006. Logistic regression analysis was performed to examine the effect of age, gender and injury etiology on risk of intensive care unit (ICU) mortality., RESULTS: The number of ICU admission for severe head injury was 231 patients with a male to female ratio of 2.8:1. Patients' mean age and standard deviation was 31.2 +/- 15.5 years. The mortality rate was 52.8%. Road traffic injury was the most common etiologic factor (84%). Logistic regression analysis indicated a 56% increase in the risk of ICU mortality between the ages of 21 and 40 years. The effect of age was found to be nonlinear (likelihood ratio P = 0.033). On multivariable analysis, patient's gender (odds ratio 1.07; 95% confidence interval: 0.56-1.97) and etiology of injury were not significantly associated with risk of mortality. Gender was not a modifier of the effect of age (P = 0.218)., CONCLUSION: The study indicated a strong prognostic effect of age. Gender and etiology of injury had no effect on ICU mortality among study cohort.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Age | ICU mortality | 231 |\n| Gender | ICU mortality | 231 |\n| Injury etiology | ICU mortality | 231 |"
-    }
-  ],
-  "created": 1654226860,
-  "id": "cmpl-5EsGKlb2v3q75GF69eW6wgdMMjndB",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>CSF and plasma amyloid-beta temporal profiles and relationships with neurological status and mortality after severe traumatic brain injury.</t>
   </si>
   <si>
     <t>The role of amyloid-beta (Abeta) neuropathology and its significant changes in biofluids after traumatic brain injury (TBI) is still debated. We used ultrasensitive digital ELISA approach to assess amyloid-beta1-42 (Abeta42) concentrations and time-course in cerebrospinal fluid (CSF) and in plasma of patients with severe TBI and investigated their relationship to injury characteristics, neurological status and clinical outcome. We found decreased CSF Abeta42 levels in TBI patients acutely after injury with lower levels in patients who died 6 months post-injury than in survivors. Conversely, plasma Abeta42 levels were significantly increased in TBI with lower levels in patients who survived. A trend analysis showed that both CSF and plasma Abeta42 levels strongly correlated with mortality. A positive correlation between changes in CSF Abeta42 concentrations and neurological status as assessed by Glasgow Coma Scale (GCS) was identified. Our results suggest that determination of Abeta42 may be valuable to obtain prognostic information in patients with severe TBI as well as in monitoring the response of the brain to injury.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Amyloid-beta1-42 (Abeta42) concentrations in cerebrospinal fluid (CSF) | Mortality | TBI patients |\n| Amyloid-beta1-42 (Abeta42) concentrations in plasma | Mortality | TBI patients |\n| Changes in CSF Abeta42 concentrations | Neurological status | TBI patients |"
-    }
-  ],
-  "created": 1654226862,
-  "id": "cmpl-5EsGMVlOVVNbgmNagBBV0Oaf1xgla",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Diagnostic and prognostic significance of suPAR in traumatic brain injury.</t>
   </si>
   <si>
     <t>BACKGROUND: Soluble urokinase plasminogen activator receptor (suPAR) is a highly sensitive marker that reflects increased inflammation and is positively correlated with pro-inflammatory biomarkers. The aim of this prospective observational study was to explore the relationship between the plasma concentration of suPAR and traumatic brain injury (TBI)., MATERIALS AND METHODS: In all 112 patients with TBI were included. Patients coming within 12 h whose highest abbreviated injury score (AIS) was 3 or less (other than head injury) were considered to be isolated TBI. Blood samples were obtained on admission. In all ninety healthy volunteers were enrolled as control group. Levels of plasma suPAR were determined using an enzyme-linked immunosorbent assay (ELISA) kit according to the manufacturer's instructions. Plasma D-dimer was measured and Glasgow Coma Scale (GCS) score was assessed at the same time., RESULTS: Plasma suPAR values were statistically significantly higher in TBI patients than in controls (patients; 14.89 +/- 6.94, controls; 2.79 +/- 0.69, P &lt; 0.01). The suPAR levels were strongly associated with the severity of TBI patients. The suPAR levels increased in association with the severity of brain injury, significance being found among all three groups: severe, moderate and mild TBI. The suPAR levels in non-survivals were significantly increased compared to the survivals (P &lt; 0.05). Plasma levels of suPAR were strongly correlated to the GCS score (r = -0.854) and the levels of D-dimer (r = 0.753, both P &lt; 0.01). Receiver operating characteristic curve (ROC) analysis of suPAR levels indicated that suPAR values had a high diagnostic specificity and sensitivity to differentiate survivals from non-survivals, the area underneath the ROC curve (AUROC) was 0.801 (95% CI: 0.698-0.903). The optimal suPAR cut-off value in predicting mortality was 15.70 ng/ml (sensitivity: 70.4%; specificity: 65.9%)., CONCLUSIONS: Plasma levels of suPAR are elevated in TBI patients. Prognosis was worse in the patient group with elevated suPAR. High suPAR levels indicate a poorer prognosis in TBI patients.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Soluble urokinase plasminogen activator receptor (suPAR) | Traumatic brain injury (TBI) | 112 |"
-    }
-  ],
-  "created": 1654226866,
-  "id": "cmpl-5EsGQwRiFj3LnYuyAKUytYAAfO3lZ",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Performance of IMPACT, CRASH and Nijmegen models in predicting six month outcome of patients with severe or moderate TBI: an external validation study.</t>
   </si>
   <si>
     <t>BACKGROUND: External validation on different TBI populations is important in order to assess the generalizability of prognostic models to different settings. We aimed to externally validate recently developed models for prediction of six month unfavourable outcome and six month mortality., METHODS: The International Neurotrauma Research Organization - Prehospital dataset (INRO-PH) was collected within an observational study between 2009-2012 in Austria and includes 778 patients with TBI of GCS &lt; = 12. Three sets of prognostic models were externally validated: the IMPACT core and extended models, CRASH basic models and the Nijmegen models developed by Jacobs et al - all for prediction of six month unfavourable outcome and six month mortality. The external validity of the models was assessed by discrimination (Area Under the receiver operating characteristic Curve, AUC) and calibration (calibration statistics and plots)., RESULTS: Median age in the validation cohort was 50 years and 44% had an admission GSC motor score of 1-3. Six-month mortality was 27%. Mortality could better be predicted (AUCs around 0.85) than unfavourable outcome (AUCs around 0.80). Calibration plots showed that the observed outcomes were systematically better than was predicted for all models considered. The best performance was noted for the original Nijmegen model, but refitting led to similar performance for the IMPACT Extended, CRASH Basic, and Nijmegen models., CONCLUSIONS: In conclusion, all the prognostic models we validated in this study possess good discriminative ability for prediction of six month outcome in patients with moderate or severe TBI but outcomes were systemically better than predicted. After adjustment for this under prediction in locally adapted models, these may well be used for recent TBI patients.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| IMPACT core and extended models | six month unfavourable outcome | 778 |\n| CRASH basic models | six month unfavourable outcome | 778 |\n| Nijmegen models | six month unfavourable outcome | 778 |\n| IMPACT core and extended models | six month mortality | 778 |\n| CRASH basic models | six month mortality | 778 |\n| Nijmegen models | six month mortality | 778 |"
-    }
-  ],
-  "created": 1654226869,
-  "id": "cmpl-5EsGTgBNt03jIoqHsaiRo2bwL9NDf",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Predictors of deterioration indicating a requirement for surgery in mild to moderate traumatic brain injury.</t>
   </si>
   <si>
     <t>OBJECTIVES: Careful course observation is necessary for cases of mild to moderate traumatic brain injury even when disturbed consciousness is mild on admission. This is because delayed enlargement of hematoma and progression of cerebral swelling may occur and result in an emergency craniotomy. Here, we investigated coagulopathy and abnormal fibrinolysis as a predictive factor of "deterioration requiring surgery" in mild to moderate traumatic brain injury., PATIENTS AND METHODS: Sixty-one patients with mild to moderate (Glasgow Coma Scale (GCS) score 9-15) traumatic brain injury were admitted between June 2009 and October 2010. There were 54 subjects in the study, excluding those treated with oral antiplatelet agents and anticoagulants. Patients were classified into those with deterioration requiring surgery [op(+)] or those without deterioration requiring surgery [op(-)]. This was based on whether surgical treatment was performed for hematoma expansion, and exacerbated consciousness level within 3 days after admission. Age, GCS score on admission and blood test findings (platelet count, PT-INR, APTT, fibrinogen, FDP, and d-dimer) on admission were compared., RESULTS: The op(+) and op(-) groups comprised 7 (13.0%) and 47 patients (87.0%), respectively. Platelet counts (24.8 vs 18.5 x 10(4)/mul) were decreased, and PT-INR (1.0 vs 1.2) was higher in the op(+) group. Specially, APTT (28.6 vs 39.1s), FDP (28.9 vs 112.9 mug/ml), and D-dimer (17.3 vs 69.6 mug/ml) values were significantly higher in the op(+) group., CONCLUSIONS: Coagulopathy and abnormal fibrinolysis, which are measurable in routine medical practice, is associated with deterioration requiring surgery in mild to moderate traumatic brain injury, indicating that careful course observation is necessary. Copyright © 2014 Elsevier B.V. All rights reserved.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n\n| Coagulopathy and abnormal fibrinolysis | Deterioration requiring surgery in mild to moderate traumatic brain injury | 54 |"
-    }
-  ],
-  "created": 1654226873,
-  "id": "cmpl-5EsGXKN9eQQyl27tK189jpC31PTEm",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
     <t>Long-term outcome prediction after a traumatic brain injury using early somatosensory and acoustic evoked potentials: analysis of the predictive value of the different single components of the potentials.</t>
   </si>
   <si>
     <t>PURPOSE: The prediction of the long-term outcome of comatose patients after severe traumatic brain injury (TBI) using early somatosensory and acoustic evoked potentials is controversial. It was our aim to examine the different single components of the evoked potentials regarding their predictive capacity in comatose patients., METHODS: We examined the amplitude and latency of the wave N20, the amplitude differences between right and left hemisphere, the central conduction time (CCT), the amplitude ratio N20 left/N20 right, the amplitude and latency of peak V, the inter-peak latency I-V and the amplitude ratio V/I. The long-term clinical outcome of the patients was re-evaluated 3 years after their discharge and correlated with the different components., RESULTS: Only the central conduction time (CCT) and the latency of the wave N20 indicated a statistical correlation with the later outcome (p = 0.0366). The amplitude ratio of wave V/I of the EAEP did not reveal a significant statistical difference between the various outcome groups., CONCLUSIONS: In this study, the use of single components of the SSEP and EAEP per se could not predict the long-term clinical outcome after TBI. Combined systems such as the Riffel Score are necessary in order to achieve this goal.</t>
   </si>
   <si>
-    <t>{
-  "choices": [
-    {
-      "finish_reason": "stop",
-      "index": 0,
-      "logprobs": null,
-      "text": "\n| --- | --- | --- |\n| Central conduction time (CCT) | Long-term clinical outcome | 100 |\n| Latency of wave N20 | Long-term clinical outcome | 100 |"
-    }
-  ],
-  "created": 1654226875,
-  "id": "cmpl-5EsGZHhVBWOXs38AZWhdnaSjQxavp",
-  "model": "text-davinci-002",
-  "object": "text_completion"
-}</t>
-  </si>
-  <si>
-    <t>imaging</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Imaging</t>
-  </si>
-  <si>
-    <t>IMAGING</t>
+    <t>The association between admission systolic blood pressure and mortality in significant traumatic brain injury: a multi-centre cohort study.</t>
+  </si>
+  <si>
+    <t>INTRODUCTION: Low systolic blood pressure (SBP) is an important secondary insult following traumatic brain injury (TBI), but its exact relationship with outcome is not well characterised. Although a SBP of &lt;90 mmHg represents the threshold for hypotension in consensus TBI treatment guidelines, recent studies suggest redefining hypotension at higher levels. This study therefore aimed to fully characterise the association between admission SBP and mortality to further inform resuscitation endpoints., METHODS: We conducted a multicentre cohort study using data from the largest European trauma registry. Consecutive adult patients with AIS head scores &gt;2 admitted directly to specialist neuroscience centres between 2005 and July 2012 were studied. Multilevel logistic regression models were developed to examine the association between admission SBP and 30 day inpatient mortality. Models were adjusted for confounders including age, severity of injury, and to account for differential quality of hospital care., RESULTS: 5057 patients were included in complete case analyses. Admission SBP demonstrated a smooth u-shaped association with outcome in a bivariate analysis, with increasing mortality at both lower and higher values, and no evidence of any threshold effect. Adjusting for confounding slightly attenuated the association between mortality and SBP at levels &lt;120 mmHg, and abolished the relationship for higher SBP values. Case-mix adjusted odds of death were 1.5 times greater at &lt;120 mmHg, doubled at &lt;100 mmHg, tripled at &lt;90 mmHg, and six times greater at SBP&lt;70 mmHg, p&lt;0.01., CONCLUSIONS: These findings indicate that TBI studies should model SBP as a continuous variable and may suggest that current TBI treatment guidelines, using a cut-off for hypotension at SBP&lt;90 mmHg, should be reconsidered. Copyright © 2013 Elsevier Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Patient-specific thresholds of intracranial pressure in severe traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>OBJECT: Based on continuous monitoring of the pressure reactivity index (PRx), the authors defined individualized intracranial pressure (ICP) thresholds by graphing the relationship between ICP and PRx. These investigators hypothesized that an "ICP dose" based on individually assessed ICP thresholds would correlate more closely with the 6-month outcome when compared with ICP doses derived by the recommended universal thresholds of 20 and 25 mm Hg., METHODS: This study was a retrospective analysis of prospectively collected data from 327 patients with severe traumatic brain injury., RESULTS: Individualized thresholds were visually identified from graphs of PRx versus ICP; PRx &gt; 0.2 was the cutoff. Intracranial pressure doses were then computed as the cumulative area under the curve above the defined thresholds in graphing ICP versus time. The term "Dose 20" (D20) was used to refer to an ICP threshold of 20 mm Hg; the markers D25 and DPRx were calculated similarly. Separate logistic regression models were fit with death as the outcome and each dose as the predictor, both alone and adjusted for covariates. The discriminative ability of each dose for mortality was assessed by receiver operating characteristic AUC analysis in which 5-fold cross-validation was used. A clearly identifiable PRx-based threshold was possible in 224 patients (68%). The DPRx (AUC 0.81, 95% CI 0.74-0.87) was found to have the highest area under the curve (AUC) over both D20 (0.75, 95% CI 0.68-0.81) and D25 (0.77, 95% CI 0.70-0.83); in the cross-validation model, DPRx remained the best discriminator of mortality (DPRx: AUC 0.77 [95% CI 0.68-0.89]; D20: 0.72 [95% CI 0.66-0.81]; and D25: 0.65 [95% CI 0.56-0.73])., CONCLUSIONS: The authors explored the importance of different ICP thresholds for outcome by calculating patient-specific ICP doses based on the continuous monitoring of cerebrovascular pressure reactivity. They found that these individualized doses of intracranial hypertension were stronger predictors of death than doses derived from the universal thresholds of 20 and 25 mm Hg. The PRx could offer a method that can be directed toward individualizing the ICP threshold.</t>
+  </si>
+  <si>
+    <t>Plasma thrombospondin-1 and clinical outcomes in traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Thrombospondin-1 (TSP-1) acts as an anti-angiogenic factor, and its expression in rat brain is upregulated after intracerebral hemorrhage. The current study was designed to investigate the change of plasma TSP-1 levels and assess the prognostic predictive effect of plasma TSP-1 level and it is associated with head trauma severity in the patients with severe traumatic brain injury (STBI)., MATERIALS AND METHODS: The plasma TSP-1 levels of 134 patients and 134 healthy controls were measured using enzyme-linked immunosorbent assay. The relationships between plasma TSP-1 levels and trauma severity reflected by Glasgow Coma Scale (GCS) scores as well as between plasma TSP-1 levels and short-term and long-term clinical outcomes were analyzed using multivariate analysis., RESULTS: Plasma TSP-1 levels were statistically significantly higher in patients than in healthy controls. The multivariate analysis demonstrated close association of TSP-1 with GCS scores and also identified TSP-1 as an independent predictor for 1-week mortality, 6-month mortality, and 6-month unfavorable outcome. Plasma TSP-1 levels had high prognostic predictive value based on receiver operating characteristic curve. The difference between its prognostic predictive value and GCS scores was not statistically significant., CONCLUSIONS: Plasma TSP-1 levels are elevated and are highly associated with head trauma severity and short-term and long-term outcomes of STBI. TSP-1 may be a good prognostic biomarker of STBI. Copyright © 2015 John Wiley &amp; Sons A/S. Published by John Wiley &amp; Sons Ltd.</t>
+  </si>
+  <si>
+    <t>Plasma brain-derived neurotrophic factor levels after severe traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Severe traumatic brain injury (TBI) is associated with a 30-70% mortality rate. Nevertheless, in clinical practice there are no effective biomarkers for the prediction of fatal outcome following severe TBI. Therefore, the aim was to determine whether brain-derived neurotrophic factor (BDNF) plasma levels are associated with intensive care unit (ICU) mortality in patients with severe TBI., METHODS: This prospective study enrolled 120 male patients who suffered severe TBI (Glasgow Coma Scale 3-8 at emergency room admission). The plasma BDNF level was determined at ICU admission (mean 6.4 hours after emergency room admission)., RESULTS: Severe TBI was associated with a 35% mortality rate and 64% of the patients presented severe TBI with multi-trauma. The mean plasma BDNF concentration among the severe TBI victims was 704.2 +/- 63.4 pg ml(-1) (+/-SEM). Nevertheless, there were no significant differences between BDNF levels in the survivor (700.2 +/- 82.8 pg ml(-1)) or non-survivor (711.6 +/- 97.4 pg ml(-1)) groups (p = 0.238) or in the isolated TBI (800.4 +/- 117.4 pg ml(-1)) or TBI with multi-trauma groups (650.5 +/- 73.9 pg ml(-1)) (p = 0.109)., CONCLUSIONS: Plasma BDNF concentrations did not correlate with either short-term fatal outcome or type of injury following severe TBI.</t>
+  </si>
+  <si>
+    <t>The Application of the CRASH-CT Prognostic Model for Older Adults With Traumatic Brain Injury: A Population-Based Observational Cohort Study.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: To examine the performance of the Corticosteroid Randomization After Significant Head injury (CRASH) trial prognostic model in older patients with traumatic brain injury., SETTING: The National Study on Costs and Outcomes of Trauma cohort, established at 69 hospitals in the United States in 2001 and 2002., PARTICIPANTS: Adults with traumatic brain injury and an initial Glasgow Coma Scale score of 14 or less., DESIGN: The CRASH-CT model predicting death within 14 days was deployed in all patients. Model performance in older patients (aged 65-84 years) was compared with that in younger patients (aged 18-64 years)., MAIN MEASURES: Model discrimination (as defined by the c-statistic) and calibration (as defined by the Hosmer-Lemeshow P value)., RESULTS: CRASH-CT model discrimination was not significantly different between the older (n = 356; weighted n = 524) and younger patients (n = 981; weighted n = 2602) and was generally adequate (c-statistic 0.83 vs 0.87, respectively; P = .11). CRASH-CT model calibration was adequate for the older patients and inadequate for younger patients (Hosmer-Lemeshow P values .12 and .001, respectively), possibly reflecting differences in sample size. Calibration-in-the-large showed no systematic under- or overprediction in either stratum., CONCLUSION: The CRASH-CT model may be valid for use in a geriatric population.</t>
+  </si>
+  <si>
+    <t>Timing of withdrawal of life-sustaining therapies in severe traumatic brain injury: Impact on overall mortality.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: The care of patients with severe traumatic brain injury (TBI) is complex and confounded by uncertainty in prognoses. Studies have demonstrated significant unexplained variation in mortality between centers. Possible explanations include differences in the quality and intensity of care across centers, including the appropriateness and timing of withdrawal of life-sustaining therapies. We postulated that centers with a preponderance of early deaths might have a more pessimistic approach to the TBI patient, which would be reflected in an increased hospital TBI-related mortality., METHODS: This is a retrospective cohort study. Time to death was used as a proxy for time to withdrawal of life-sustaining therapies. Centers were classified as early or late based on when the majority (75th percentile) of their TBI-related deaths occurred. We evaluated the association between adjusted mortality and center classification using a hierarchical multivariable model. Two hundred trauma centers contributing data to the American College of Surgeons Trauma Quality Improvement Program from 2010 through 2013 were involved. The cohort included 17,505 patients with severe isolated TBI., RESULTS: One hundred eight centers were classified as early centers. The 75th percentile for time to death was 4 days among early centers versus 7 days in late centers. Mortality was 34% and 33%, respectively. After adjustment for case mix, care in an early center was not associated with increased odds of death (adjusted odds ratio, 0.95; 95% confidence interval, 0.83-1.09). Higher odds of death were independently associated with age, Glasgow Coma Scale (GCS) score, head Abbreviated Injury Scale (AIS) score, multiple comorbidities, traumatic subarachnoid hemorrhage, intracerebral mass lesions, brainstem lesions, and signs of compressed or absent basal cisterns., CONCLUSION: Centers rendering early decisions related to withdrawal of life-sustaining therapies in TBI patients, as measured by time until death, do not have worse outcomes than those making later decisions. How and when these decisions are made requires further exploration to balance an opportunity for clinical improvement with appropriate resource use., LEVEL OF EVIDENCE: Prognostic and epidemiologic study, level III.</t>
+  </si>
+  <si>
+    <t>External Validation of the International Mission for Prognosis and Analysis of Clinical Trials in Traumatic Brain Injury: Prognostic Models for Traumatic Brain Injury on the Study of the Neuroprotective Activity of Progesterone in Severe Traumatic Brain I</t>
+  </si>
+  <si>
+    <t>Prediction models for patients with traumatic brain injury (TBI) are important for multiple reasons, including case-mix adjustment, trial design, and benchmarking for quality-of-care evaluation. Models should be generalizable and therefore require regular external validation. We aimed to validate the International Mission for Prognosis and Analysis of Clinical Trials in TBI (IMPACT) prognostic models for moderate and severe TBI in a recent randomized controlled trial. We studied 1124 patients enrolled in the multi-center randomized placebo-controlled Study of the Neuroprotective Activity of Progesterone in Severe Traumatic Brain Injuries (SyNAPSe) trial that evaluated the efficacy of progesterone in TBI. Treatment and placebo groups were combined for analysis. We evaluated the predictive performance of the three prognostic models (core, extended, and lab) from the IMPACT study with regard to discrimination (area under the receiver operating characteristic curve [AUC]) and calibration (comparison of observed to predicted risks). Substantial differences were found in case-mix and outcome distribution between IMPACT and SyNAPSe. In line with the more homogeneous case-mix of a clinical trial, the discriminative performance was reasonable. For the core model, an AUC of 0.677 and 0.684 was obtained for 6-month mortality and unfavorable outcome, respectively. Performance was slightly better for the extended model (0.693 and 0.705) and for the lab model (0.689 and 0.711, respectively). For calibration, we found overestimation of mortality, especially at higher risk predictions, and underestimation of unfavorable outcome, especially at lower risk predictions. This pattern of miscalibration was consistent across all three models. In a contemporary trial setting, the IMPACT models have reasonable discrimination if enrollment restrictions apply. Observed changes in outcome distribution necessitate updating of previously developed prognostic models.</t>
+  </si>
+  <si>
+    <t>Change of serum levels of thioredoxin in patients with severe traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Thioredoxin (TRX), a potent anti-oxidant, is released during inflammation and oxidative stress. The purpose of this study was to establish the relationship between serum TRX concentrations and trauma severity and outcome in severe traumatic brain injury (STBI)., METHODS: We determined serum TRX concentrations in 112 patients and 112 controls. Multivariate analyses were performed to analyze the predictive factors of 1-week mortality, 6-month mortality and 6-month unfavorable outcome. The predictive values were investigated under receiver operating characteristic curves., RESULTS: Serum TRX concentrations were markedly higher in patients than in controls (19.1+/-7.8ng/ml vs. 8.0+/-2.3ng/ml, P&lt;0.001). There was a significant negative association between serum TRX concentrations and Glasgow coma scale (GCS) scores (r=-0.543, P&lt;0.001). Increased TRX was identified as an independent prognostic marker of 1-week mortality [Odds ratio (OR), 1.220; 95% confidence interval (CI), 1.101-1.367; P&lt;0.001], 6-month mortality (OR, 1.201; 95% CI, 1.097-1.324; P&lt;0.001) and 6-month unfavorable outcome (OR, 1.189; 95% CI, 1.090-1.311; P&lt;0.001). TRX concentrations improved area under curve of GCS scores for 6-month unfavorable outcome, but not for 1-week mortality and 6-month mortality., CONCLUSIONS: Increased serum TRX concentration, associated highly with trauma severity and poor outcome, might be a novel prognostic marker in patients with STBI. Copyright © 2015 Elsevier B.V. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Olfactory function in acute traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Traumatic brain injury (TBI) represents a significant public health problem and is associated with a high rate of mortality and morbidity. Although TBI is amongst the most common causes of olfactory dysfunction the relationship between injury severity and olfactory problems has not yet been investigated with validated and standardized methods in the first days following the TBI., METHODS: We measured olfactory function in 63 patients admitted with TBI within the first 12 days following the trauma by means of the Sniffin' Sticks identification test (quantitative assessment) and a parosmia questionnaire (qualitative assessment). TBI severity was determined by means of the Glasgow Coma Scale (GCS) and by duration of post-traumatic amnesia (PTA) as measured by the Galveston Orientation and Amnesia Test., RESULTS: Poor olfactory scores correlated with a longer amnesia period, but not with GCS scores. Further, we observed higher parosmia scores in assault victims than in victims of falls or motor vehicle collisions., CONCLUSIONS: We show that PTA is intimately related to olfactory problems following a TBI. Thus, a thorough evaluation of olfaction is essential in order to detect posttraumatic olfactory dysfunction and to take appropriate actions early on to help the individual deal with this impairment. Copyright © 2015 Elsevier B.V. All rights reserved.</t>
+  </si>
+  <si>
+    <t>The effect of brain injury on the inflammatory response following severe trauma.</t>
+  </si>
+  <si>
+    <t>INTRODUCTION: The inflammatory response is an important part of the pathophysiology of severe injury and, in particular, of severe traumatic brain injury (TBI). This study evaluates the inflammatory course following major trauma and focuses on the effect of severe TBI on inflammatory markers., MATERIAL AND METHODS: This was a retrospective analysis of prospectively collected data in 123 severely injured (ISS &gt;=16) trauma patients. The study cohort was divided into patients with isolated TBI (Head AIS &gt;=3, all other AIS &lt;3), polytraumatized patients with severe TBI (Head AIS &gt;=3; AIS of other body area &gt;=3; Polytrauma+TBI) and polytraumatized patients without TBI (Head AIS &lt;3; Polytrauma). Levels of inflammatory markers (Interleukin-6 [IL-6], C-reactive Protein [CRP], leukocytes) measured upon arrival and through hospital days 1-3 were compared between the groups., RESULTS: On admission and through hospital day 3, IL-6 levels were significantly different between the 3 groups (admission: isolated TBI vs. Polytrauma+TBI vs. Polytrauma; 94+/-16 vs. 149+/-20 vs. 245+/-50pg/mL; p&lt;0.05). Interleukin-6 levels peaked on hospital day 1 and declined thereafter. C-reactive protein and leukocyte counts were not significantly different between the cohorts on arrival and peaked on hospital day 2 and 1, respectively. In patients with severe TBI, admission IL-6 levels significantly predicted the development of septic complications (ROC analysis, AUC: 0.88, p=0.001, 95% CI: 0.79-0.97) and multiple organ dysfunction (ROC analysis, AUC: 0.83, p=0.001, 95% CI: 0.69-0.96)., CONCLUSION: Severe TBI reduced the inflammatory response following trauma. Significant correlations between admission IL-6 values and the development of MOF, sepsis and the neurological outcome were found in patients with TBI. Copyright © 2015 Elsevier GmbH. All rights reserved.</t>
+  </si>
+  <si>
+    <t>The Rotterdam Scoring System Can Be Used as an Independent Factor for Predicting Traumatic Brain Injury Outcomes.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Predicting outcomes in patients with traumatic brain injury is critically important for making sound clinical decisions. This study aimed at determining the prognostic value of the Rotterdam scoring system to predict early death among these patients., MATERIALS AND METHODS: This study was performed prospectively on 150 patients with traumatic brain injury hospitalized in Shahid Beheshti Hospital, Kashan, Iran. Patients' demographic and clinical characteristics such as age, sex, mechanism of trauma, initial Glasgow Coma Scale score, and accompanying lesions were documented. A brain computed tomography was performed for each patient and scored by use of the Rotterdam system. Patients were monitored for 2 weeks after hospital discharge, and their outcomes were documented. Univariate and multiple logistic regression analysis and prognostic values of Rotterdam system were conducted by SPSS software., RESULTS: Nineteen patients (12.7%) died during the course of the study. The mean age of the dead patients was significantly greater than those who survived (P = 0.037). The sensitivity and the specificity of the Rotterdam scoring system at the cutoff score of 4 were 84.2% and 96.2%, respectively. Rotterdam score was significantly correlated with patient outcomes (P &lt; 0.0001). Moreover, logistic regression analyses revealed that factors such as age, sex, Glasgow Coma Scale score, and Rotterdam score significantly contributed to patient outcomes., CONCLUSIONS: Rotterdam score is an independent factor for predicting outcomes among patients with traumatic brain injury. At the cutoff score of 4, the Rotterdam system can predict outcomes among patients suffering from traumatic brain injury with acceptable sensitivity and specificity. Copyright © 2016 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Can Serum Glucose Level in Early Admission Predict Outcome in Patients with Severe Head Trauma?.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Traumatic brain injury is a major general health concern. This study aims to evaluate a possible relationship between the serum level of glucose during admission and the outcome of patients with severe traumatic brain injury., METHODS: In this prospective study, 80 patients with severe traumatic brain injury were recruited from the emergency department of Urmia Imam Khomeini Hospital. Serum level of glucose was measured at the time of admission and its correlation was investigated with the Glasgow Coma Scale score (on admission, 24 hours, 48 hours, and 1 week later, and at discharge) and Glasgow Outcome Score. In addition, the value of admission serum glucose was compared between deceased and discharged patients., RESULTS: Eighty patients with severe head trauma, 71 men (88%) and 9 women (11.2%) with a mean age of 31.71 +/- 15.66 years, were enrolled into the study. The in-hospital mortality rate was 25% (n = 20). There was no significant correlation between serum glucose level and Glasgow Coma Scale score (at different intervals) or Glasgow Outcome Score. The mean serum level of glucose was comparable between deceased and discharged patients (186.10 +/- 51.36 vs. 187.98 +/- 76.03 mg/dL, respectively; P = 0.91)., CONCLUSIONS: Admission serum glucose is not a significant indicator of outcome in patients with severe head trauma. Copyright © 2016 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Principal components derived from CSF inflammatory profiles predict outcome in survivors after severe traumatic brain injury.</t>
+  </si>
+  <si>
+    <t>Studies have characterized absolute levels of multiple inflammatory markers as significant risk factors for poor outcomes after traumatic brain injury (TBI). However, inflammatory marker concentrations are highly inter-related, and production of one may result in the production or regulation of another. Therefore, a more comprehensive characterization of the inflammatory response post-TBI should consider relative levels of markers in the inflammatory pathway. We used principal component analysis (PCA) as a dimension-reduction technique to characterize the sets of markers that contribute independently to variability in cerebrospinal (CSF) inflammatory profiles after TBI. Using PCA results, we defined groups (or clusters) of individuals (n=111) with similar patterns of acute CSF inflammation that were then evaluated in the context of outcome and other relevant CSF and serum biomarkers collected days 0-3 and 4-5 post-injury. We identified four significant principal components (PC1-PC4) for CSF inflammation from days 0-3, and PC1 accounted for the greatest (31%) percentage of variance. PC1 was characterized by relatively higher CSF sICAM-1, sFAS, IL-10, IL-6, sVCAM-1, IL-5, and IL-8 levels. Cluster analysis then defined two distinct clusters, such that individuals in cluster 1 had highly positive PC1 scores and relatively higher levels of CSF cortisol, progesterone, estradiol, testosterone, brain derived neurotrophic factor (BDNF), and S100b; this group also had higher serum cortisol and lower serum BDNF. Multinomial logistic regression analyses showed that individuals in cluster 1 had a 10.9 times increased likelihood of GOS scores of 2/3 vs. 4/5 at 6 months compared to cluster 2, after controlling for covariates. Cluster group did not discriminate between mortality compared to GOS scores of 4/5 after controlling for age and other covariates. Cluster groupings also did not discriminate mortality or 12 month outcomes in multivariate models. PCA and cluster analysis establish that a subset of CSF inflammatory markers measured in days 0-3 post-TBI may distinguish individuals with poor 6-month outcome, and future studies should prospectively validate these findings. PCA of inflammatory mediators after TBI could aid in prognostication and in identifying patient subgroups for therapeutic interventions. Copyright © 2015 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Predictors of Outcomes in Traumatic Brain Injury.</t>
+  </si>
+  <si>
+    <t>INTRODUCTION: The purpose of this study was to retrospectively evaluate patients treated for traumatic brain injuries (TBI) to determine how multiple organ trauma (MOT) and lung injuries sustained at the time of initial injury affect outcome., METHODS: A single institution retrospective review of all patients diagnosed with TBI at a level I trauma center from 2000 to 2014 was conducted. Clinical outcome was based on Glasgow Outcome Scale at hospital discharge. Lung injury was defined as the presence of pulmonary contusions, pneumothorax, hemothorax, rib fractures, or diaphragmatic rupture proven by x-ray or computed tomography scan. MOT was defined as trauma to one body region with an Abbreviated Injury Scale (AIS) score &gt;=3 plus trauma to 2 additional body regions with AIS scores &gt;=1. Regression analysis was conducted with SPSS 21., RESULTS: There were 409 patients reviewed. The majority of patients were male (73%), average age was 46 years (range, 16-94 years), average Glasgow Coma Scale (GCS) score was 7, and 71% had a severe TBI (GCS &lt;=8). Thirty percent of patients had poor outcome (Glasgow Outcome Scale = 1-2) Regression analysis indicated age (odds ratio [OR] 1.03, P &lt; 0.001), initial GCS (OR 0.88, P &lt; 0.001), Injury Severity Score (OR 1.03, P = 0.021), and head AIS &gt;=5 (OR 0.55, P = 0.019) were significant independent predictors of poor outcome. Sex, MOT, lung injury, and lung injury severity were not significant predictors of outcome., CONCLUSIONS: Age, GCS, Injury Severity Score, and critical head injuries (AIS &gt;=5) were significant tools in predicting outcome in this patient cohort. MOT and traumatic lung injury may cause significant damage to a patient suffering from a severe TBI, but these injuries do not predict mortality in this patient population. Copyright © 2015 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Serum biomarkers as predictors of long-term outcome in severe traumatic brain injury: analysis from a randomized placebo-controlled Phase II clinical trial.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE There has been increased interest in the potential importance of biochemical parameters as predictors of outcome in severe traumatic brain injury (sTBI). METHODS Of 107 patients with sTBI (age 18-65 years with a Glasgow Coma Scale score of 4-8 presenting within 8 hours after injury) who were randomized for a placebo-controlled Phase II trial of progesterone with or without hypothermia, the authors serially analyzed serum biomarkers (S100-B, glial fibrillary acidic protein [GFAP], neuron-specific enolase [NSE], tumor necrosis factor-alpha, interleukin-6 [IL-6], estrogen [Eg], and progesterone [Pg]). This analysis was performed using the sandwich enzyme-linked immunosorbent assay technique at admission and 7 days later for 86 patients, irrespective of assigned group. The long-term predictive values of serum biomarkers for dichotomized Glasgow Outcome Scale (GOS) score, functional independence measure, and survival status at 6 and 12 months were analyzed using an adjusted binary logistic regression model and receiver operating characteristic curve. RESULTS A favorable GOS score (4-5) at 1 year was predicted by higher admission IL-6 (above 108.36 pg/ml; area under the curve [AUC] 0.69, sensitivity 52%, and specificity 78.6%) and Day 7 Pg levels (above 3.15 ng/ml; AUC 0.79, sensitivity 70%, and specificity 92.9%). An unfavorable GOS score (1-3) at 1 year was predicted by higher Day 7 GFAP levels (above 9.50 ng/ml; AUC 0.82, sensitivity 78.6%, and specificity 82.4%). Survivors at 1 year had significantly higher Day 7 Pg levels (above 3.15 ng/ml; AUC 0.78, sensitivity 66.7%, and specificity 90.9%). Nonsurvivors at 1 year had significantly higher Day 7 GFAP serum levels (above 11.14 ng/ml; AUC 0.81, sensitivity 81.8%, and specificity 88.9%) and Day 7 IL-6 serum levels (above 71.26 pg/ml; AUC 0.87, sensitivity 81.8%, and specificity 87%). In multivariate logistic regression analysis, independent predictors of outcome at 1 year were serum levels of Day 7 Pg (favorable GOS-OR 3.24, CI 1.5-7, p = 0.003; and favorable survival-OR 2, CI 1.2-3.5, p = 0.01); admission IL-6 (favorable GOS-OR 1.04, CI 1.00-1.08, p = 0.04); and Day 7 GFAP (unfavorable GOS-OR 0.79, CI 0.65-0.95, p = 0.01; and unfavorable survival-OR 0.80, CI 0.66-0.96, p = 0.01). CONCLUSIONS Serial Pg, GFAP, and IL-6 monitoring could aid in prognosticating outcomes in patients with acute sTBI. A cause and effect relationship or a mere association of these biomarkers to outcome needs to be further studied for better understanding of the pathophysiology of sTBI and for choosing potential therapeutic targets. Clinical trial registration no.: CTRI/2009/091/000893 ( http://www.ctri.nic.in ).</t>
+  </si>
+  <si>
+    <t>Diffusion tensor imaging in acute-to-subacute traumatic brain injury: a longitudinal analysis.</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Diffusion tensor imaging (DTI) may have prognostic utility in patients with traumatic brain injury (TBI), but the optimal timing of DTI data acquisition is unknown because of dynamic changes in white matter water diffusion during the acute and subacute stages of TBI. We aimed to characterize the direction and magnitude of early longitudinal changes in white matter fractional anisotropy (FA) and to determine whether acute or subacute FA values correlate more reliably with functional outcomes after TBI., METHODS: From a prospective TBI outcomes database, 11 patients who underwent acute (&lt;=7 days) and subacute (8 days to rehabilitation discharge) DTI were retrospectively analyzed. Longitudinal changes in FA were measured in 11 white matter regions susceptible to traumatic axonal injury. Correlations were assessed between acute FA, subacute FA and the disability rating scale (DRS) score, which was ascertained at discharge from inpatient rehabilitation., RESULTS: FA declined from the acute-to-subacute period in the genu of the corpus callosum (0.70 +/- 0.02 vs. 0.55 +/- 0.11, p &lt; 0.05) and inferior longitudinal fasciculus (0.54+/-0.07 vs. 0.49+/-0.07, p &lt; 0.01). Acute correlations between FA and DRS score were variable: higher FA in the body (R = -0.78, p = 0.02) and splenium (R = -0.83, p = 0.003) of the corpus callosum was associated with better outcomes (i.e. lower DRS scores), whereas higher FA in the genu of the corpus callosum (R = 0.83, p = 0.02) corresponded with worse outcomes (i.e. higher DRS scores). In contrast, in the subacute period higher FA in the splenium correlated with better outcomes (R = -0.63, p &lt; 0.05) and no inverse correlations were observed., CONCLUSIONS: White matter FA declined during the acute-to-subacute stages of TBI. Variability in acute FA correlations with outcome suggests that the optimal timing of DTI for TBI prognostication may be in the subacute period.</t>
+  </si>
+  <si>
+    <t>Complications following hospital admission for traumatic brain injury: A multicenter cohort study.</t>
+  </si>
+  <si>
+    <t>PURPOSE: To evaluate the incidence, determinants and impact on outcome of in-hospital complications in adults with traumatic brain injury (TBI)., MATERIALS AND METHODS: We conducted a multicenter cohort study of TBI patients admitted between 2007 and 2012 in an inclusive Canadian trauma system. Risk ratios of complications, odds ratios of mortality and geometric mean ratios of length of stay (LOS) were calculated using generalized linear models with adjustment for prognostic indicators and hospital cluster effects., RESULTS: Of 12,887 patients, 3.2% had at least one neurological complication and 22.6% a non-neurological complication. Mechanical ventilation, head injury severity, blood transfusion and neurosurgical intervention had the strongest correlation with neurological complications. Mechanical ventilation, the Glasgow Coma Scale, blood transfusion and concomitant injuries had the strongest correlation with non-neurological complications. Neurological and non-neurological complications were associated with a 85% and 53% increase in the odds of mortality, and a 60% and two-fold increases in LOS, respectively., CONCLUSIONS: More than 20% of patients with TBI developed a complication. Many of these complications were associated with increased mortality and LOS. Results highlight the importance of prevention strategies adapted to treatment decisions and underline the need to improve knowledge on the underuse and overuse of clinical interventions. Copyright © 2017 Elsevier Inc. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Management and outcome of traumatic brain injury patients at Muhimbili Orthopaedic Institute Dar es Salaam, Tanzania.</t>
+  </si>
+  <si>
+    <t>INTRODUCTION: Traumatic brain Injuries represents a significant cause of morbidity and mortality worldwide and road traffic crashes accounts for a significant proportion of these injuries. However, access to neurosurgical care is poor in low income countries like Tanzania. The aim of this study was to assess the management and outcome of Traumatic brain injury patients at a tertiary level health facility in Tanzania., METHODS: A retrospective observational study of Traumatic brain injury patients attended at Muhimbili Orthopedic Institute between January 2014 and June 2014., RESULTS: A total of 627 Traumatic brain injury (TBI) patients were seen, 86% were males. Majority (73%) were between 15 - 45 years age group. Road traffic crashes were the leading cause of injury (59.3%). Majority 401/627 (64%) sustained mild TBI, 114/627 (18.2%) moderate TBI and 112/627 (17.8%) severe TBI. All mild TBI patients had good recovery. Among patients with moderate and severe TBI; 19.1% had good recovery, 50.2% recovered with disabilities and 30.7% died. Independent factors associated with mortality were: Severe TBI (Odds Ratio (OR) 3.16. 95%CI 3.42-10.52) and Systolic blood pressure at referring hospital of more than 90mmHg (Odds Ratio (OR) 0.13, 95%CI 0.04-0.49)., CONCLUSION: Traumatic brain injury is a public health problem in Tanzania, mostly due to road traffic crashes. It is therefore important to reinforce preventive measures for road traffic crashes. There is also a need to develop and implement protocols for pre-hospital as well as in-hospital management of brain trauma in Tanzania.</t>
   </si>
 </sst>
 </file>
@@ -711,286 +622,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
